--- a/LH_TESTCASES/LH_TC_ADMINCONSTRAINS.xlsx
+++ b/LH_TESTCASES/LH_TC_ADMINCONSTRAINS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Preconditions</t>
   </si>
@@ -210,9 +210,6 @@
     <t>TC_ADM_005</t>
   </si>
   <si>
-    <t>SRS-ADM-003</t>
-  </si>
-  <si>
     <t>Verify admin can delete a user by username.</t>
   </si>
   <si>
@@ -228,18 +225,65 @@
     <t xml:space="preserve">Admin is logged in, a user exists </t>
   </si>
   <si>
+    <t>TC_ADM_006</t>
+  </si>
+  <si>
     <t>1_Log in as admin.
-2_Navigate to user 3_management section.
-4_Search for user by username.
+2_Navigate to user management section.
+4_Search for user by  valid username.
 5_Click “Delete” button.
 6_Confirm deletion</t>
   </si>
   <si>
+    <t>user name (eg.eman21)</t>
+  </si>
+  <si>
+    <t>User id (ex:U001)</t>
+  </si>
+  <si>
     <t>1_Log in as admin.
-2_Navigate to user 3_management section.
-4_Search for user by .
+2_Navigate to user management section.
+4_Search for user by valid ID.
 5_Click “Delete” button.
 6_Confirm deletion</t>
+  </si>
+  <si>
+    <t>Verify admin can not delete 
+       non-existent user (non exist user name)</t>
+  </si>
+  <si>
+    <t>TC_ADM_007</t>
+  </si>
+  <si>
+    <t>Admin is logged in, a user name is notexist</t>
+  </si>
+  <si>
+    <t>Admin is logged in, a user idis notexist</t>
+  </si>
+  <si>
+    <t>1_Log in as admin.
+2_Navigate to user management section.
+4_Search for user by non existant user name .
+5_Click “Delete” button.
+6_Confirm deletion</t>
+  </si>
+  <si>
+    <t>Error message("No users with this information")</t>
+  </si>
+  <si>
+    <t>1_Log in as admin.
+2_Navigate to user management section.
+4_Search for user by non existant user id.
+5_Click “Delete” button.
+6_Confirm deletion</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>_Edit the id for LH_SRS_ADM_003 to
+LH_SRS_ADM_002
+_add more two test cases for LH_SRS_ADM_002</t>
   </si>
 </sst>
 </file>
@@ -416,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -451,6 +495,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -468,36 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,19 +870,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" style="5" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="54.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" style="17"/>
     <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
@@ -847,42 +894,42 @@
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="F1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -936,19 +983,19 @@
       <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="147" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
@@ -960,13 +1007,13 @@
       <c r="C10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -983,94 +1030,132 @@
       <c r="C11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="31" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="C12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="33"/>
+      <c r="F12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" ht="168" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>43</v>
+      <c r="A13" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" s="15" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F14" s="25" t="s">
+      <c r="G14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="168" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F15" s="25" t="s">
+      <c r="G15" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="15"/>
+      <c r="F16" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F16" s="25" t="s">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="25" t="s">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1105,7 +1190,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,14 +1227,23 @@
       </c>
       <c r="D2" s="13">
         <f ca="1">TODAY()</f>
-        <v>45766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="13">
+        <f ca="1">TODAY()</f>
+        <v>45769</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>

--- a/LH_TESTCASES/LH_TC_ADMINCONSTRAINS.xlsx
+++ b/LH_TESTCASES/LH_TC_ADMINCONSTRAINS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Preconditions</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Admin is logged in, a user name is notexist</t>
   </si>
   <si>
-    <t>Admin is logged in, a user idis notexist</t>
-  </si>
-  <si>
     <t>1_Log in as admin.
 2_Navigate to user management section.
 4_Search for user by non existant user name .
@@ -284,6 +281,13 @@
     <t>_Edit the id for LH_SRS_ADM_003 to
 LH_SRS_ADM_002
 _add more two test cases for LH_SRS_ADM_002</t>
+  </si>
+  <si>
+    <t>Verify admin can not delete 
+       non-existent user (non exist user id)</t>
+  </si>
+  <si>
+    <t>Admin is logged in, a user id is notexist</t>
   </si>
 </sst>
 </file>
@@ -870,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -997,7 +1001,7 @@
       </c>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="147" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="126" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="147" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="126" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1071,7 @@
       </c>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" ht="168" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="15" customFormat="1" ht="147" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>29</v>
       </c>
@@ -1105,13 +1109,13 @@
         <v>55</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="21"/>
     </row>
@@ -1123,19 +1127,19 @@
         <v>54</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1232,13 +1236,13 @@
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="13">
         <f ca="1">TODAY()</f>

--- a/LH_TESTCASES/LH_TC_ADMINCONSTRAINS.xlsx
+++ b/LH_TESTCASES/LH_TC_ADMINCONSTRAINS.xlsx
@@ -1,24 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testing\iti\6_QA\workshop\TCS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LH_TC_FEATURENAME" sheetId="1" r:id="rId1"/>
+    <sheet name="LH_TC_ADMINCONSTRAINS" sheetId="1" r:id="rId1"/>
     <sheet name="VESRION HISTORY" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LH_TC_FEATURENAME!$A$8:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LH_TC_ADMINCONSTRAINS!$A$8:$I$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>Preconditions</t>
   </si>
@@ -86,215 +104,460 @@
     <t>intial test cases for admin constrains</t>
   </si>
   <si>
-    <t>SRS-ADM-001</t>
-  </si>
-  <si>
-    <t>TC_ADM_001</t>
-  </si>
-  <si>
     <t>ADMIN CONSTRAINS</t>
   </si>
   <si>
-    <t>Verify admin can delete an article posted by a user.</t>
-  </si>
-  <si>
-    <t>Admin is logged in, 
-a user has posted an article.</t>
-  </si>
-  <si>
-    <t>1_Log in as admin.
-2_Navigate to content management section.
-3_Select a user’s article.
-4_Click “Delete” button.
-5_Confirm deletion</t>
-  </si>
-  <si>
-    <t>Article is removed from the content list.</t>
-  </si>
-  <si>
-    <t>SRS-ADM-002</t>
-  </si>
-  <si>
-    <t>TC_ADM_002</t>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>_Edit the id for LH_SRS_ADM_003 to
+LH_SRS_ADM_002
+_add more two test cases for LH_SRS_ADM_002</t>
+  </si>
+  <si>
+    <t>Ahmed Abuzaid</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEPOST-001
+&amp;
+LH-SRS-DELETEPOST-002</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEPOST-002</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEPOST-001</t>
+  </si>
+  <si>
+    <t>Verify admin can delete any post(article,video,audio)
+ posted by user.</t>
+  </si>
+  <si>
+    <t>post is removed from the content list and database</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEPOST-003</t>
+  </si>
+  <si>
+    <t>Verify the "Search by Username" field and "Search" button exist on the Delete Post page</t>
+  </si>
+  <si>
+    <t>Admin is logged in</t>
+  </si>
+  <si>
+    <t>The page contains a "Search by Username" field and a "Search" button.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEPOST-004</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEPOST-003</t>
+  </si>
+  <si>
+    <t>Verify the system displays all posts when searching for a valid user with posts</t>
+  </si>
+  <si>
+    <t>Admin is logged in, and a user has posts</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify admin can delete an </t>
+      <t>Valid username: </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
-      <t>VIDEO</t>
+      <t>ASDDweq</t>
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> posted by a user.</t>
+      <t> (with posts)</t>
     </r>
   </si>
   <si>
-    <t>Admin is logged in, 
-a user has posted an VIDEO.</t>
-  </si>
-  <si>
-    <t>Video is removed from the content list.</t>
-  </si>
-  <si>
-    <t>1_Log in as admin.
-2_Navigate to content management section.
-3_Select a user’s video.
-4_Click “Delete” button.
-5_Confirm deletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Audio is removed from the content list.</t>
-  </si>
-  <si>
-    <t>1_Log in as admin.
-2_Navigate to content management section.
-3_Select a user’s audio
-4_Click “Delete” button.
-5_Confirm deletion</t>
-  </si>
-  <si>
-    <t>Admin is logged in, 
-a user has posted an audio</t>
+    <t>All posts by the searched user are displayed in a list.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEPOST-005</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEPOST-004</t>
+  </si>
+  <si>
+    <t>Verify the system displays "No posts found for this user" if the user has no posts</t>
+  </si>
+  <si>
+    <t>Admin is logged in, user exists but has no posts</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify admin can delete an </t>
+      <t>Valid username: </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
-      <t>audio</t>
+      <t>NoPostsUser</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays: "No posts found for this user."</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEPOST-006</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEPOST-005</t>
+  </si>
+  <si>
+    <t>Verify the system displays "Username not found" if the username is invalid</t>
+  </si>
+  <si>
+    <r>
+      <t>Invalid username: </t>
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> posted by a user.</t>
+      <t>NonExistingUser123</t>
     </r>
   </si>
   <si>
-    <t>TC_ADM_003</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>TC_ADM_004</t>
-  </si>
-  <si>
-    <t>TC_ADM_005</t>
-  </si>
-  <si>
-    <t>Verify admin can delete a user by username.</t>
-  </si>
-  <si>
-    <t>Admin is logged in, a user exists</t>
-  </si>
-  <si>
-    <t>User is removed from user list.</t>
-  </si>
-  <si>
-    <t>Verify admin can delete a user by ID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin is logged in, a user exists </t>
-  </si>
-  <si>
-    <t>TC_ADM_006</t>
-  </si>
-  <si>
-    <t>1_Log in as admin.
-2_Navigate to user management section.
-4_Search for user by  valid username.
-5_Click “Delete” button.
-6_Confirm deletion</t>
-  </si>
-  <si>
-    <t>user name (eg.eman21)</t>
-  </si>
-  <si>
-    <t>User id (ex:U001)</t>
-  </si>
-  <si>
-    <t>1_Log in as admin.
-2_Navigate to user management section.
-4_Search for user by valid ID.
-5_Click “Delete” button.
-6_Confirm deletion</t>
-  </si>
-  <si>
-    <t>Verify admin can not delete 
-       non-existent user (non exist user name)</t>
-  </si>
-  <si>
-    <t>TC_ADM_007</t>
-  </si>
-  <si>
-    <t>Admin is logged in, a user name is notexist</t>
-  </si>
-  <si>
-    <t>1_Log in as admin.
-2_Navigate to user management section.
-4_Search for user by non existant user name .
-5_Click “Delete” button.
-6_Confirm deletion</t>
-  </si>
-  <si>
-    <t>Error message("No users with this information")</t>
-  </si>
-  <si>
-    <t>1_Log in as admin.
-2_Navigate to user management section.
-4_Search for user by non existant user id.
-5_Click “Delete” button.
-6_Confirm deletion</t>
-  </si>
-  <si>
-    <t>V1.1</t>
-  </si>
-  <si>
-    <t>_Edit the id for LH_SRS_ADM_003 to
-LH_SRS_ADM_002
-_add more two test cases for LH_SRS_ADM_002</t>
-  </si>
-  <si>
-    <t>Verify admin can not delete 
-       non-existent user (non exist user id)</t>
-  </si>
-  <si>
-    <t>Admin is logged in, a user id is notexist</t>
+    <t>System displays: "Username not found."</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEPOST-007</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEPOST-006</t>
+  </si>
+  <si>
+    <t>Verify clicking the logo redirects the admin to the home page</t>
+  </si>
+  <si>
+    <t>Admin is redirected to the home page.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Valid data for admin
+email:admin1@iti.cv
+password:Admin@131312
+&amp;
+valid username :ASDDweq</t>
+  </si>
+  <si>
+    <t>1. Log in as admin.
+2. Navigate to the Delete Post page.</t>
+  </si>
+  <si>
+    <t>Admin credentials:
+email: admin1@iti.cv
+password: Admin@131312</t>
+  </si>
+  <si>
+    <t>1. Log in as admin.
+2. Navigate to Delete Post page.
+3. Enter a valid username with posts.
+4. Click "Search."</t>
+  </si>
+  <si>
+    <t>1. Log in as admin.
+2. Navigate to Delete Post page.
+3. Enter a valid username with no posts
+4. Click "Search."</t>
+  </si>
+  <si>
+    <t>1. Log in as admin.
+2. Navigate to Delete Post page.
+3. Enter an invalid username.
+4. Click "Search."</t>
+  </si>
+  <si>
+    <t>1. Log in as admin.
+2. Navigate to any page (e.g., Delete Post).
+3. Click the logo.</t>
+  </si>
+  <si>
+    <t>Admin is logged in, 
+a user had posted any post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_Log in as admin.
+2_Navigate to delete post page.
+3_search by exsisting username .
+4. Verify a "Delete" button exists for each displayed post.  
+5. Choose a post and click "Delete".  
+6. Confirm deletion. </t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-001</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-001</t>
+  </si>
+  <si>
+    <t>Verify the "Delete User" page is accessible only to admins</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-002</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-002</t>
+  </si>
+  <si>
+    <t>Verify admin can delete any registered user</t>
+  </si>
+  <si>
+    <t>Admin is logged in, target user exists</t>
+  </si>
+  <si>
+    <t>User is removed from the system.</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-003</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-003</t>
+  </si>
+  <si>
+    <t>Verify the "Search by Username" field exists on the "Delete User" page</t>
+  </si>
+  <si>
+    <t>Page contains a "Search by Username" field.</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-004</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-004</t>
+  </si>
+  <si>
+    <t>Verify the system initiates a user lookup when searching</t>
+  </si>
+  <si>
+    <t>System performs a lookup and displays results.</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-005</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-005</t>
+  </si>
+  <si>
+    <t>Verify the system displays username and user ID upon successful search</t>
+  </si>
+  <si>
+    <t>Admin is logged in, user exists</t>
+  </si>
+  <si>
+    <t>Username and user ID are displayed.</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-006</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-006</t>
+  </si>
+  <si>
+    <t>Verify "User was not found" message for invalid usernames</t>
+  </si>
+  <si>
+    <t>System displays: "User was not found."</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-007</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-007</t>
+  </si>
+  <si>
+    <t>Verify all user posts are deleted when the user is deleted</t>
+  </si>
+  <si>
+    <t>Admin is logged in, user has posts</t>
+  </si>
+  <si>
+    <t>All posts by the user are removed from the UI and database.</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-008</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-008</t>
+  </si>
+  <si>
+    <t>Verify the system remains on the "Delete User" page after deletion</t>
+  </si>
+  <si>
+    <t>Page does not redirect; stays on "Delete User".</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-009</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-009</t>
+  </si>
+  <si>
+    <t>Verify deleted users do not appear in subsequent searches</t>
+  </si>
+  <si>
+    <t>Admin is logged in, user was deleted</t>
+  </si>
+  <si>
+    <t>System displays "User was not found."</t>
+  </si>
+  <si>
+    <t>LH-SRS-DELETEUSER-010</t>
+  </si>
+  <si>
+    <t>LH-TC-DELETEUSER-010</t>
+  </si>
+  <si>
+    <t>Verify page refresh does not disrupt functionality</t>
+  </si>
+  <si>
+    <t>Search works normally after refresh.</t>
+  </si>
+  <si>
+    <t>"Delete User" page loads successfully.
+ Non-admin users cannot access it.</t>
+  </si>
+  <si>
+    <t>1. Log in as admin
+2. Navigate to "Delete User" page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (email: admin1@iti.cv, password: Admin@131312).</t>
+  </si>
+  <si>
+    <t>1. Log in as admin.
+2. Navigate to "Delete User" page.</t>
+  </si>
+  <si>
+    <t>V2.0</t>
+  </si>
+  <si>
+    <t>1. Log in as admin.
+2. Navigate to "Delete User" page.
+3. Search for a valid user 
+4. Click "Delete User".
+5. Confirm deletion.</t>
+  </si>
+  <si>
+    <t>1. Log in as admin.
+2. Navigate to "Delete User" page.
+3.Enter a valid username 
+4. Click "Search".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as admin.
+2. Navigate to "Delete User" page.
+3. Search for a valid user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as admin.
+2. Navigate to "Delete User" page.
+3. Search for an invalid username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as admin.
+2. Navigate to "Delete User" page.
+3. Delete a user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as admin.
+2. Navigate to "Delete User" page.
+3. Refresh the "Delete User" page.
+4. Perform a new search </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (email: admin1@iti.cv, password: Admin@131312).
+username.(username: TestUser123).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (email: admin1@iti.cv, password: Admin@131312).
+Valid username.
+(username: ActiveUser456).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (email: admin1@iti.cv, password: Admin@131312).
+(username: NonExistentUser).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (email: admin1@iti.cv, password: Admin@131312).
+(username: ActiveUser456).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (email: admin1@iti.cv, password: Admin@131312).
+(username: TempUser789).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (email: admin1@iti.cv, password: Admin@131312).
+ Previously deleted username.(username: DeletedUser123).</t>
+  </si>
+  <si>
+    <t>  (email: admin1@iti.cv, password: Admin@131312).
+Validusername.
+(username: RefreshTestUser).</t>
+  </si>
+  <si>
+    <t>1. Log in as admin.
+2. Navigate to "Delete User" page. 
+3.Search for a user with posts 
+4. Delete the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as admin.
+2. Navigate to "Delete User" page.
+3. Search for a deleted user </t>
+  </si>
+  <si>
+    <t>modify admin constraints according to SRS</t>
+  </si>
+  <si>
+    <t>26/4/2025</t>
+  </si>
+  <si>
+    <t>25/4/2025</t>
+  </si>
+  <si>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +609,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF404040"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,7 +644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -484,53 +778,67 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -549,6 +857,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,6 +891,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -628,7 +942,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +977,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -872,80 +1186,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:EG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C15"/>
+    <sheetView topLeftCell="E12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="62.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="67.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="17"/>
+    <col min="9" max="9" width="25.7109375" style="15"/>
     <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="21.140625" style="28" customWidth="1"/>
+    <col min="12" max="137" width="9.140625" style="28"/>
+    <col min="138" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:137" s="2" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="16"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="27"/>
+      <c r="CA1" s="27"/>
+      <c r="CB1" s="27"/>
+      <c r="CC1" s="27"/>
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="27"/>
+      <c r="CF1" s="27"/>
+      <c r="CG1" s="27"/>
+      <c r="CH1" s="27"/>
+      <c r="CI1" s="27"/>
+      <c r="CJ1" s="27"/>
+      <c r="CK1" s="27"/>
+      <c r="CL1" s="27"/>
+      <c r="CM1" s="27"/>
+      <c r="CN1" s="27"/>
+      <c r="CO1" s="27"/>
+      <c r="CP1" s="27"/>
+      <c r="CQ1" s="27"/>
+      <c r="CR1" s="27"/>
+      <c r="CS1" s="27"/>
+      <c r="CT1" s="27"/>
+      <c r="CU1" s="27"/>
+      <c r="CV1" s="27"/>
+      <c r="CW1" s="27"/>
+      <c r="CX1" s="27"/>
+      <c r="CY1" s="27"/>
+      <c r="CZ1" s="27"/>
+      <c r="DA1" s="27"/>
+      <c r="DB1" s="27"/>
+      <c r="DC1" s="27"/>
+      <c r="DD1" s="27"/>
+      <c r="DE1" s="27"/>
+      <c r="DF1" s="27"/>
+      <c r="DG1" s="27"/>
+      <c r="DH1" s="27"/>
+      <c r="DI1" s="27"/>
+      <c r="DJ1" s="27"/>
+      <c r="DK1" s="27"/>
+      <c r="DL1" s="27"/>
+      <c r="DM1" s="27"/>
+      <c r="DN1" s="27"/>
+      <c r="DO1" s="27"/>
+      <c r="DP1" s="27"/>
+      <c r="DQ1" s="27"/>
+      <c r="DR1" s="27"/>
+      <c r="DS1" s="27"/>
+      <c r="DT1" s="27"/>
+      <c r="DU1" s="27"/>
+      <c r="DV1" s="27"/>
+      <c r="DW1" s="27"/>
+      <c r="DX1" s="27"/>
+      <c r="DY1" s="27"/>
+      <c r="DZ1" s="27"/>
+      <c r="EA1" s="27"/>
+      <c r="EB1" s="27"/>
+      <c r="EC1" s="27"/>
+      <c r="ED1" s="27"/>
+      <c r="EE1" s="27"/>
+      <c r="EF1" s="27"/>
+      <c r="EG1" s="27"/>
+    </row>
+    <row r="2" spans="1:137" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:137" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:137" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
+      <c r="B4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:137" x14ac:dyDescent="0.35">
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:137" x14ac:dyDescent="0.35">
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:137" x14ac:dyDescent="0.35">
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:137" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1408,7 @@
       <c r="F8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -976,191 +1420,1124 @@
       <c r="J8" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="29"/>
+      <c r="BE8" s="29"/>
+      <c r="BF8" s="29"/>
+      <c r="BG8" s="29"/>
+      <c r="BH8" s="29"/>
+      <c r="BI8" s="29"/>
+      <c r="BJ8" s="29"/>
+      <c r="BK8" s="29"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="29"/>
+      <c r="BN8" s="29"/>
+      <c r="BO8" s="29"/>
+      <c r="BP8" s="29"/>
+      <c r="BQ8" s="29"/>
+      <c r="BR8" s="29"/>
+      <c r="BS8" s="29"/>
+      <c r="BT8" s="29"/>
+      <c r="BU8" s="29"/>
+      <c r="BV8" s="29"/>
+      <c r="BW8" s="29"/>
+      <c r="BX8" s="29"/>
+      <c r="BY8" s="29"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="29"/>
+      <c r="CB8" s="29"/>
+      <c r="CC8" s="29"/>
+      <c r="CD8" s="29"/>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="29"/>
+      <c r="CG8" s="29"/>
+      <c r="CH8" s="29"/>
+      <c r="CI8" s="29"/>
+      <c r="CJ8" s="29"/>
+      <c r="CK8" s="29"/>
+      <c r="CL8" s="29"/>
+      <c r="CM8" s="29"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="29"/>
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="29"/>
+      <c r="CT8" s="29"/>
+      <c r="CU8" s="29"/>
+      <c r="CV8" s="29"/>
+      <c r="CW8" s="29"/>
+      <c r="CX8" s="29"/>
+      <c r="CY8" s="29"/>
+      <c r="CZ8" s="29"/>
+      <c r="DA8" s="29"/>
+      <c r="DB8" s="29"/>
+      <c r="DC8" s="29"/>
+      <c r="DD8" s="29"/>
+      <c r="DE8" s="29"/>
+      <c r="DF8" s="29"/>
+      <c r="DG8" s="29"/>
+      <c r="DH8" s="29"/>
+      <c r="DI8" s="29"/>
+      <c r="DJ8" s="29"/>
+      <c r="DK8" s="29"/>
+      <c r="DL8" s="29"/>
+      <c r="DM8" s="29"/>
+      <c r="DN8" s="29"/>
+      <c r="DO8" s="29"/>
+      <c r="DP8" s="29"/>
+      <c r="DQ8" s="29"/>
+      <c r="DR8" s="29"/>
+      <c r="DS8" s="29"/>
+      <c r="DT8" s="29"/>
+      <c r="DU8" s="29"/>
+      <c r="DV8" s="29"/>
+      <c r="DW8" s="29"/>
+      <c r="DX8" s="29"/>
+      <c r="DY8" s="29"/>
+      <c r="DZ8" s="29"/>
+      <c r="EA8" s="29"/>
+      <c r="EB8" s="29"/>
+      <c r="EC8" s="29"/>
+      <c r="ED8" s="29"/>
+      <c r="EE8" s="29"/>
+      <c r="EF8" s="29"/>
+      <c r="EG8" s="29"/>
+    </row>
+    <row r="9" spans="1:137" s="19" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30"/>
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30"/>
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30"/>
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30"/>
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30"/>
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30"/>
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
+      <c r="CT9" s="30"/>
+      <c r="CU9" s="30"/>
+      <c r="CV9" s="30"/>
+      <c r="CW9" s="30"/>
+      <c r="CX9" s="30"/>
+      <c r="CY9" s="30"/>
+      <c r="CZ9" s="30"/>
+      <c r="DA9" s="30"/>
+      <c r="DB9" s="30"/>
+      <c r="DC9" s="30"/>
+      <c r="DD9" s="30"/>
+      <c r="DE9" s="30"/>
+      <c r="DF9" s="30"/>
+      <c r="DG9" s="30"/>
+      <c r="DH9" s="30"/>
+      <c r="DI9" s="30"/>
+      <c r="DJ9" s="30"/>
+      <c r="DK9" s="30"/>
+      <c r="DL9" s="30"/>
+      <c r="DM9" s="30"/>
+      <c r="DN9" s="30"/>
+      <c r="DO9" s="30"/>
+      <c r="DP9" s="30"/>
+      <c r="DQ9" s="30"/>
+      <c r="DR9" s="30"/>
+      <c r="DS9" s="30"/>
+      <c r="DT9" s="30"/>
+      <c r="DU9" s="30"/>
+      <c r="DV9" s="30"/>
+      <c r="DW9" s="30"/>
+      <c r="DX9" s="30"/>
+      <c r="DY9" s="30"/>
+      <c r="DZ9" s="30"/>
+      <c r="EA9" s="30"/>
+      <c r="EB9" s="30"/>
+      <c r="EC9" s="30"/>
+      <c r="ED9" s="30"/>
+      <c r="EE9" s="30"/>
+      <c r="EF9" s="30"/>
+      <c r="EG9" s="30"/>
+    </row>
+    <row r="10" spans="1:137" s="20" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="C10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31"/>
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="31"/>
+      <c r="BF10" s="31"/>
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="31"/>
+      <c r="BI10" s="31"/>
+      <c r="BJ10" s="31"/>
+      <c r="BK10" s="31"/>
+      <c r="BL10" s="31"/>
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="31"/>
+      <c r="BO10" s="31"/>
+      <c r="BP10" s="31"/>
+      <c r="BQ10" s="31"/>
+      <c r="BR10" s="31"/>
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="31"/>
+      <c r="BU10" s="31"/>
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="31"/>
+      <c r="BX10" s="31"/>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="31"/>
+      <c r="CA10" s="31"/>
+      <c r="CB10" s="31"/>
+      <c r="CC10" s="31"/>
+      <c r="CD10" s="31"/>
+      <c r="CE10" s="31"/>
+      <c r="CF10" s="31"/>
+      <c r="CG10" s="31"/>
+      <c r="CH10" s="31"/>
+      <c r="CI10" s="31"/>
+      <c r="CJ10" s="31"/>
+      <c r="CK10" s="31"/>
+      <c r="CL10" s="31"/>
+      <c r="CM10" s="31"/>
+      <c r="CN10" s="31"/>
+      <c r="CO10" s="31"/>
+      <c r="CP10" s="31"/>
+      <c r="CQ10" s="31"/>
+      <c r="CR10" s="31"/>
+      <c r="CS10" s="31"/>
+      <c r="CT10" s="31"/>
+      <c r="CU10" s="31"/>
+      <c r="CV10" s="31"/>
+      <c r="CW10" s="31"/>
+      <c r="CX10" s="31"/>
+      <c r="CY10" s="31"/>
+      <c r="CZ10" s="31"/>
+      <c r="DA10" s="31"/>
+      <c r="DB10" s="31"/>
+      <c r="DC10" s="31"/>
+      <c r="DD10" s="31"/>
+      <c r="DE10" s="31"/>
+      <c r="DF10" s="31"/>
+      <c r="DG10" s="31"/>
+      <c r="DH10" s="31"/>
+      <c r="DI10" s="31"/>
+      <c r="DJ10" s="31"/>
+      <c r="DK10" s="31"/>
+      <c r="DL10" s="31"/>
+      <c r="DM10" s="31"/>
+      <c r="DN10" s="31"/>
+      <c r="DO10" s="31"/>
+      <c r="DP10" s="31"/>
+      <c r="DQ10" s="31"/>
+      <c r="DR10" s="31"/>
+      <c r="DS10" s="31"/>
+      <c r="DT10" s="31"/>
+      <c r="DU10" s="31"/>
+      <c r="DV10" s="31"/>
+      <c r="DW10" s="31"/>
+      <c r="DX10" s="31"/>
+      <c r="DY10" s="31"/>
+      <c r="DZ10" s="31"/>
+      <c r="EA10" s="31"/>
+      <c r="EB10" s="31"/>
+      <c r="EC10" s="31"/>
+      <c r="ED10" s="31"/>
+      <c r="EE10" s="31"/>
+      <c r="EF10" s="31"/>
+      <c r="EG10" s="31"/>
+    </row>
+    <row r="11" spans="1:137" s="20" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="126" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="D11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="126" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="J11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="31"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="31"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="31"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="31"/>
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="31"/>
+      <c r="CD11" s="31"/>
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="31"/>
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="31"/>
+      <c r="CJ11" s="31"/>
+      <c r="CK11" s="31"/>
+      <c r="CL11" s="31"/>
+      <c r="CM11" s="31"/>
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="31"/>
+      <c r="CP11" s="31"/>
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="31"/>
+      <c r="CS11" s="31"/>
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="31"/>
+      <c r="CV11" s="31"/>
+      <c r="CW11" s="31"/>
+      <c r="CX11" s="31"/>
+      <c r="CY11" s="31"/>
+      <c r="CZ11" s="31"/>
+      <c r="DA11" s="31"/>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="31"/>
+      <c r="DD11" s="31"/>
+      <c r="DE11" s="31"/>
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="31"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="31"/>
+      <c r="DJ11" s="31"/>
+      <c r="DK11" s="31"/>
+      <c r="DL11" s="31"/>
+      <c r="DM11" s="31"/>
+      <c r="DN11" s="31"/>
+      <c r="DO11" s="31"/>
+      <c r="DP11" s="31"/>
+      <c r="DQ11" s="31"/>
+      <c r="DR11" s="31"/>
+      <c r="DS11" s="31"/>
+      <c r="DT11" s="31"/>
+      <c r="DU11" s="31"/>
+      <c r="DV11" s="31"/>
+      <c r="DW11" s="31"/>
+      <c r="DX11" s="31"/>
+      <c r="DY11" s="31"/>
+      <c r="DZ11" s="31"/>
+      <c r="EA11" s="31"/>
+      <c r="EB11" s="31"/>
+      <c r="EC11" s="31"/>
+      <c r="ED11" s="31"/>
+      <c r="EE11" s="31"/>
+      <c r="EF11" s="31"/>
+      <c r="EG11" s="31"/>
+    </row>
+    <row r="12" spans="1:137" s="21" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="28"/>
+      <c r="BA12" s="28"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="28"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="28"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="28"/>
+      <c r="BK12" s="28"/>
+      <c r="BL12" s="28"/>
+      <c r="BM12" s="28"/>
+      <c r="BN12" s="28"/>
+      <c r="BO12" s="28"/>
+      <c r="BP12" s="28"/>
+      <c r="BQ12" s="28"/>
+      <c r="BR12" s="28"/>
+      <c r="BS12" s="28"/>
+      <c r="BT12" s="28"/>
+      <c r="BU12" s="28"/>
+      <c r="BV12" s="28"/>
+      <c r="BW12" s="28"/>
+      <c r="BX12" s="28"/>
+      <c r="BY12" s="28"/>
+      <c r="BZ12" s="28"/>
+      <c r="CA12" s="28"/>
+      <c r="CB12" s="28"/>
+      <c r="CC12" s="28"/>
+      <c r="CD12" s="28"/>
+      <c r="CE12" s="28"/>
+      <c r="CF12" s="28"/>
+      <c r="CG12" s="28"/>
+      <c r="CH12" s="28"/>
+      <c r="CI12" s="28"/>
+      <c r="CJ12" s="28"/>
+      <c r="CK12" s="28"/>
+      <c r="CL12" s="28"/>
+      <c r="CM12" s="28"/>
+      <c r="CN12" s="28"/>
+      <c r="CO12" s="28"/>
+      <c r="CP12" s="28"/>
+      <c r="CQ12" s="28"/>
+      <c r="CR12" s="28"/>
+      <c r="CS12" s="28"/>
+      <c r="CT12" s="28"/>
+      <c r="CU12" s="28"/>
+      <c r="CV12" s="28"/>
+      <c r="CW12" s="28"/>
+      <c r="CX12" s="28"/>
+      <c r="CY12" s="28"/>
+      <c r="CZ12" s="28"/>
+      <c r="DA12" s="28"/>
+      <c r="DB12" s="28"/>
+      <c r="DC12" s="28"/>
+      <c r="DD12" s="28"/>
+      <c r="DE12" s="28"/>
+      <c r="DF12" s="28"/>
+      <c r="DG12" s="28"/>
+      <c r="DH12" s="28"/>
+      <c r="DI12" s="28"/>
+      <c r="DJ12" s="28"/>
+      <c r="DK12" s="28"/>
+      <c r="DL12" s="28"/>
+      <c r="DM12" s="28"/>
+      <c r="DN12" s="28"/>
+      <c r="DO12" s="28"/>
+      <c r="DP12" s="28"/>
+      <c r="DQ12" s="28"/>
+      <c r="DR12" s="28"/>
+      <c r="DS12" s="28"/>
+      <c r="DT12" s="28"/>
+      <c r="DU12" s="28"/>
+      <c r="DV12" s="28"/>
+      <c r="DW12" s="28"/>
+      <c r="DX12" s="28"/>
+      <c r="DY12" s="28"/>
+      <c r="DZ12" s="28"/>
+      <c r="EA12" s="28"/>
+      <c r="EB12" s="28"/>
+      <c r="EC12" s="28"/>
+      <c r="ED12" s="28"/>
+      <c r="EE12" s="28"/>
+      <c r="EF12" s="28"/>
+      <c r="EG12" s="28"/>
+    </row>
+    <row r="13" spans="1:137" ht="84" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" ht="147" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:137" ht="63" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:137" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:137" ht="42" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="168" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="F16" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="19" t="s">
-        <v>40</v>
+    </row>
+    <row r="17" spans="1:10" ht="105" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="63" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1171,12 +2548,12 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",I9)))</formula>
+  <conditionalFormatting sqref="I26:I1048576">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I9)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1193,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,72 +2583,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="13">
-        <f ca="1">TODAY()</f>
-        <v>45769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="D2" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="13">
-        <f ca="1">TODAY()</f>
-        <v>45769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="12">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
